--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -476,15 +476,11 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>55443322</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>90909054321</t>
-        </is>
+      <c r="E2" t="n">
+        <v>55443322</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90909054321</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -504,15 +500,11 @@
           <t>Adresse 22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99887766</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>90909012345</t>
-        </is>
+      <c r="E3" t="n">
+        <v>99887766</v>
+      </c>
+      <c r="F3" t="n">
+        <v>90909012345</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -528,15 +520,11 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>55443322</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>90909054321</t>
-        </is>
+      <c r="E4" t="n">
+        <v>55443322</v>
+      </c>
+      <c r="F4" t="n">
+        <v>90909054321</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -556,15 +544,11 @@
           <t>Adresse 22</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99887766</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>90909012345</t>
-        </is>
+      <c r="E5" t="n">
+        <v>99887766</v>
+      </c>
+      <c r="F5" t="n">
+        <v>90909012345</v>
       </c>
     </row>
     <row r="6">
@@ -572,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -580,15 +564,11 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>55443322</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>90909054321</t>
-        </is>
+      <c r="E6" t="n">
+        <v>55443322</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90909054321</v>
       </c>
     </row>
     <row r="7">
@@ -596,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -608,15 +588,11 @@
           <t>Adresse 22</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99887766</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>90909012345</t>
-        </is>
+      <c r="E7" t="n">
+        <v>99887766</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90909012345</v>
       </c>
     </row>
     <row r="8">
@@ -624,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -632,15 +608,11 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>55443322</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>90909054321</t>
-        </is>
+      <c r="E8" t="n">
+        <v>55443322</v>
+      </c>
+      <c r="F8" t="n">
+        <v>90909054321</v>
       </c>
     </row>
     <row r="9">
@@ -648,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -660,15 +632,11 @@
           <t>Adresse 22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99887766</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>90909012345</t>
-        </is>
+      <c r="E9" t="n">
+        <v>99887766</v>
+      </c>
+      <c r="F9" t="n">
+        <v>90909012345</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -696,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -720,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -740,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -764,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -784,7 +752,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -808,7 +776,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -828,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -852,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -872,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -896,7 +864,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -916,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -932,6 +900,94 @@
         <v>99887766</v>
       </c>
       <c r="F21" t="n">
+        <v>90909012345</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Solveig</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>55443322</v>
+      </c>
+      <c r="F22" t="n">
+        <v>90909054321</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Arne</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Adresse 22</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>99887766</v>
+      </c>
+      <c r="F23" t="n">
+        <v>90909012345</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Solveig</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>55443322</v>
+      </c>
+      <c r="F24" t="n">
+        <v>90909054321</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Arne</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Adresse 22</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>99887766</v>
+      </c>
+      <c r="F25" t="n">
         <v>90909012345</v>
       </c>
     </row>
@@ -1120,7 +1176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,12 +1201,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20202012345</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20202012345</v>
       </c>
     </row>
     <row r="3">
@@ -1158,12 +1212,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20202012345</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20202012345</v>
       </c>
     </row>
     <row r="4">
@@ -1171,12 +1223,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20202012345</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20202012345</v>
       </c>
     </row>
     <row r="5">
@@ -1184,12 +1234,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20202012345</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20202012345</v>
       </c>
     </row>
     <row r="6">
@@ -1197,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>20202012345</v>
@@ -1208,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>20202012345</v>
@@ -1219,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>20202012345</v>
@@ -1230,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>20202012345</v>
@@ -1241,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>20202012345</v>
@@ -1252,9 +1300,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20202012345</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20202012345</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>20202012345</v>
       </c>
     </row>
@@ -1269,7 +1339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1344,36 +1414,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J2" t="n">
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
+      <c r="M2" t="n">
+        <v>1000000</v>
       </c>
     </row>
     <row r="3">
@@ -1381,32 +1443,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J3" t="n">
+        <v>2</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
+      <c r="M3" t="n">
+        <v>1000000</v>
       </c>
     </row>
     <row r="4">
@@ -1414,32 +1472,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
+      <c r="M4" t="n">
+        <v>1000000</v>
       </c>
     </row>
     <row r="5">
@@ -1447,36 +1505,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J5" t="n">
+        <v>2</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
+      <c r="M5" t="n">
+        <v>1000000</v>
       </c>
     </row>
     <row r="6">
@@ -1484,23 +1534,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
@@ -1517,16 +1563,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
@@ -1534,14 +1580,10 @@
           <t>on</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -1554,27 +1596,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -1587,23 +1629,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -1616,16 +1666,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
         <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1649,16 +1699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1673,6 +1723,68 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
